--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1184.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1184.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.137836210814918</v>
+        <v>1.170101881027222</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.439114332199097</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.648399874341743</v>
+        <v>2.367249488830566</v>
       </c>
       <c r="E1">
-        <v>1.09126160554508</v>
+        <v>1.234473347663879</v>
       </c>
     </row>
   </sheetData>
